--- a/data_quarter/zb/工业/工业产能利用率/按行业分工业产能利用率.xlsx
+++ b/data_quarter/zb/工业/工业产能利用率/按行业分工业产能利用率.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI5"/>
+  <dimension ref="A1:BX5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,11 +734,86 @@
           <t>工业产能利用率_黑色金属冶炼和压延加工业 _累计值</t>
         </is>
       </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>工业产能利用率_专用设备制造业</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>工业产能利用率_化学原料和化学制品制造业</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>工业产能利用率_化学纤维制造业</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>工业产能利用率_医药制造业</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>工业产能利用率_有色金属冶炼和压延加工业</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>工业产能利用率_汽车制造业</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>工业产能利用率_煤炭开采和洗选业</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">工业产能利用率_电气机械和器材制造业 </t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>工业产能利用率_石油和天然气开采业</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>工业产能利用率_纺织业</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>工业产能利用率_计算机、通信和其他电子设备制造业</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>工业产能利用率_通用设备制造业</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>工业产能利用率_非金属矿物制品业</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>工业产能利用率_食品制造业</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">工业产能利用率_黑色金属冶炼和压延加工业 </t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -861,385 +936,490 @@
       </c>
       <c r="BH2" t="inlineStr"/>
       <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.90000000000001</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="D3" t="n">
-        <v>4.7</v>
+        <v>6.6</v>
       </c>
       <c r="E3" t="n">
-        <v>80.5</v>
+        <v>81.3</v>
       </c>
       <c r="F3" t="n">
+        <v>80</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="J3" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>9</v>
+      </c>
+      <c r="M3" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="N3" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Q3" t="n">
         <v>77.8</v>
       </c>
-      <c r="G3" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I3" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L3" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="N3" t="n">
-        <v>76.59999999999999</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>81</v>
+      </c>
+      <c r="V3" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="X3" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="AA3" t="n">
         <v>3.8</v>
       </c>
-      <c r="Q3" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="R3" t="n">
-        <v>79.59999999999999</v>
-      </c>
-      <c r="S3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3</v>
-      </c>
-      <c r="U3" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="V3" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="W3" t="n">
-        <v>-7.1</v>
-      </c>
-      <c r="X3" t="n">
+      <c r="AB3" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="AE3" t="n">
         <v>3.6</v>
       </c>
-      <c r="Y3" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>0.1</v>
       </c>
-      <c r="AF3" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>90</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.2</v>
-      </c>
       <c r="AK3" t="n">
-        <v>90.09999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="AL3" t="n">
-        <v>79.5</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="AM3" t="n">
-        <v>3.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AN3" t="n">
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>79.59999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="AP3" t="n">
-        <v>80.8</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="AR3" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="AS3" t="n">
-        <v>79.7</v>
+        <v>79.2</v>
       </c>
       <c r="AT3" t="n">
-        <v>80.90000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="AV3" t="n">
-        <v>5</v>
+        <v>6.9</v>
       </c>
       <c r="AW3" t="n">
         <v>80.90000000000001</v>
       </c>
       <c r="AX3" t="n">
-        <v>70</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="AY3" t="n">
-        <v>-1.8</v>
+        <v>4.4</v>
       </c>
       <c r="AZ3" t="n">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="BA3" t="n">
-        <v>69.90000000000001</v>
+        <v>69.8</v>
       </c>
       <c r="BB3" t="n">
-        <v>74.2</v>
+        <v>72.8</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0.3</v>
+        <v>2.4</v>
       </c>
       <c r="BD3" t="n">
-        <v>4.7</v>
+        <v>7.4</v>
       </c>
       <c r="BE3" t="n">
-        <v>73.7</v>
+        <v>73.5</v>
       </c>
       <c r="BF3" t="n">
-        <v>77</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="BG3" t="n">
-        <v>-4.6</v>
+        <v>5.7</v>
       </c>
       <c r="BH3" t="n">
-        <v>3.2</v>
+        <v>7.4</v>
       </c>
       <c r="BI3" t="n">
+        <v>83</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="BU3" t="n">
         <v>80.90000000000001</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.40000000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="D4" t="n">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="E4" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="R4" t="n">
+        <v>79.59999999999999</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3</v>
+      </c>
+      <c r="U4" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-7.1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AG4" t="n">
         <v>81.3</v>
       </c>
-      <c r="F4" t="n">
-        <v>80</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="I4" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="J4" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9</v>
-      </c>
-      <c r="M4" t="n">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="N4" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="R4" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="U4" t="n">
-        <v>81</v>
-      </c>
-      <c r="V4" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="W4" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="X4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>81.40000000000001</v>
-      </c>
       <c r="AH4" t="n">
-        <v>90.3</v>
+        <v>90</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AK4" t="n">
-        <v>90.2</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="AL4" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>79.59999999999999</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="AT4" t="n">
         <v>80.90000000000001</v>
       </c>
-      <c r="AM4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>81.59999999999999</v>
-      </c>
       <c r="AU4" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="AV4" t="n">
-        <v>6.9</v>
+        <v>5</v>
       </c>
       <c r="AW4" t="n">
         <v>80.90000000000001</v>
       </c>
       <c r="AX4" t="n">
-        <v>72.59999999999999</v>
+        <v>70</v>
       </c>
       <c r="AY4" t="n">
-        <v>4.4</v>
+        <v>-1.8</v>
       </c>
       <c r="AZ4" t="n">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="BA4" t="n">
-        <v>69.8</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="BB4" t="n">
-        <v>72.8</v>
+        <v>74.2</v>
       </c>
       <c r="BC4" t="n">
-        <v>2.4</v>
+        <v>-0.3</v>
       </c>
       <c r="BD4" t="n">
-        <v>7.4</v>
+        <v>4.7</v>
       </c>
       <c r="BE4" t="n">
-        <v>73.5</v>
+        <v>73.7</v>
       </c>
       <c r="BF4" t="n">
-        <v>84.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="BG4" t="n">
-        <v>5.7</v>
+        <v>-4.6</v>
       </c>
       <c r="BH4" t="n">
-        <v>7.4</v>
+        <v>3.2</v>
       </c>
       <c r="BI4" t="n">
-        <v>83</v>
+        <v>80.90000000000001</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0.6000000000000085</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>79.59999999999999</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0.1000000000000085</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>80.90000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2021年第四季度</t>
+          <t>2021年D</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1420,6 +1600,51 @@
         <v>0.4</v>
       </c>
       <c r="BI5" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>80</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>1.099999999999994</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0.5999999999999943</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="BX5" t="n">
         <v>79.2</v>
       </c>
     </row>

--- a/data_quarter/zb/工业/工业产能利用率/按行业分工业产能利用率.xlsx
+++ b/data_quarter/zb/工业/工业产能利用率/按行业分工业产能利用率.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BX5"/>
+  <dimension ref="A1:BI5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,81 +734,6 @@
           <t>工业产能利用率_黑色金属冶炼和压延加工业 _累计值</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>工业产能利用率_专用设备制造业</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>工业产能利用率_化学原料和化学制品制造业</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>工业产能利用率_化学纤维制造业</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>工业产能利用率_医药制造业</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>工业产能利用率_有色金属冶炼和压延加工业</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>工业产能利用率_汽车制造业</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>工业产能利用率_煤炭开采和洗选业</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">工业产能利用率_电气机械和器材制造业 </t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>工业产能利用率_石油和天然气开采业</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>工业产能利用率_纺织业</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>工业产能利用率_计算机、通信和其他电子设备制造业</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>工业产能利用率_通用设备制造业</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>工业产能利用率_非金属矿物制品业</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>工业产能利用率_食品制造业</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">工业产能利用率_黑色金属冶炼和压延加工业 </t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -936,484 +861,379 @@
       </c>
       <c r="BH2" t="inlineStr"/>
       <c r="BI2" t="inlineStr"/>
-      <c r="BJ2" t="inlineStr"/>
-      <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="inlineStr"/>
-      <c r="BM2" t="inlineStr"/>
-      <c r="BN2" t="inlineStr"/>
-      <c r="BO2" t="inlineStr"/>
-      <c r="BP2" t="inlineStr"/>
-      <c r="BQ2" t="inlineStr"/>
-      <c r="BR2" t="inlineStr"/>
-      <c r="BS2" t="inlineStr"/>
-      <c r="BT2" t="inlineStr"/>
-      <c r="BU2" t="inlineStr"/>
-      <c r="BV2" t="inlineStr"/>
-      <c r="BW2" t="inlineStr"/>
-      <c r="BX2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2021年B</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80.40000000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="D3" t="n">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="E3" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="R3" t="n">
+        <v>79.59999999999999</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3</v>
+      </c>
+      <c r="U3" t="n">
+        <v>80.5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-7.1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AG3" t="n">
         <v>81.3</v>
       </c>
-      <c r="F3" t="n">
-        <v>80</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="I3" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="J3" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L3" t="n">
-        <v>9</v>
-      </c>
-      <c r="M3" t="n">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="N3" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="R3" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T3" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="U3" t="n">
-        <v>81</v>
-      </c>
-      <c r="V3" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="W3" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="X3" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>81.40000000000001</v>
-      </c>
       <c r="AH3" t="n">
-        <v>90.3</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AK3" t="n">
-        <v>90.2</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="AL3" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>79.59999999999999</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="AT3" t="n">
         <v>80.90000000000001</v>
       </c>
-      <c r="AM3" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>81.59999999999999</v>
-      </c>
       <c r="AU3" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="AV3" t="n">
-        <v>6.9</v>
+        <v>5</v>
       </c>
       <c r="AW3" t="n">
         <v>80.90000000000001</v>
       </c>
       <c r="AX3" t="n">
-        <v>72.59999999999999</v>
+        <v>70</v>
       </c>
       <c r="AY3" t="n">
-        <v>4.4</v>
+        <v>-1.8</v>
       </c>
       <c r="AZ3" t="n">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="BA3" t="n">
-        <v>69.8</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="BB3" t="n">
-        <v>72.8</v>
+        <v>74.2</v>
       </c>
       <c r="BC3" t="n">
-        <v>2.4</v>
+        <v>-0.3</v>
       </c>
       <c r="BD3" t="n">
-        <v>7.4</v>
+        <v>4.7</v>
       </c>
       <c r="BE3" t="n">
-        <v>73.5</v>
+        <v>73.7</v>
       </c>
       <c r="BF3" t="n">
-        <v>84.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="BG3" t="n">
-        <v>5.7</v>
+        <v>-4.6</v>
       </c>
       <c r="BH3" t="n">
-        <v>7.4</v>
+        <v>3.2</v>
       </c>
       <c r="BI3" t="n">
-        <v>83</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>81</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>79.7</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="BU3" t="n">
         <v>80.90000000000001</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>69.8</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>73.5</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2021年C</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78.90000000000001</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="D4" t="n">
-        <v>4.7</v>
+        <v>6.6</v>
       </c>
       <c r="E4" t="n">
-        <v>80.5</v>
+        <v>81.3</v>
       </c>
       <c r="F4" t="n">
+        <v>80</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="J4" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9</v>
+      </c>
+      <c r="M4" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="N4" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Q4" t="n">
         <v>77.8</v>
       </c>
-      <c r="G4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I4" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="N4" t="n">
-        <v>76.59999999999999</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>81</v>
+      </c>
+      <c r="V4" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="X4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="AA4" t="n">
         <v>3.8</v>
       </c>
-      <c r="Q4" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="R4" t="n">
-        <v>79.59999999999999</v>
-      </c>
-      <c r="S4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3</v>
-      </c>
-      <c r="U4" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="V4" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="W4" t="n">
-        <v>-7.1</v>
-      </c>
-      <c r="X4" t="n">
+      <c r="AB4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="AE4" t="n">
         <v>3.6</v>
       </c>
-      <c r="Y4" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>74.2</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>0.1</v>
       </c>
-      <c r="AF4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.2</v>
-      </c>
       <c r="AK4" t="n">
-        <v>90.09999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="AL4" t="n">
-        <v>79.5</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="AM4" t="n">
-        <v>3.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AN4" t="n">
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>79.59999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="AP4" t="n">
-        <v>80.8</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="AR4" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="AS4" t="n">
-        <v>79.7</v>
+        <v>79.2</v>
       </c>
       <c r="AT4" t="n">
-        <v>80.90000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="AV4" t="n">
-        <v>5</v>
+        <v>6.9</v>
       </c>
       <c r="AW4" t="n">
         <v>80.90000000000001</v>
       </c>
       <c r="AX4" t="n">
-        <v>70</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="AY4" t="n">
-        <v>-1.8</v>
+        <v>4.4</v>
       </c>
       <c r="AZ4" t="n">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="BA4" t="n">
-        <v>69.90000000000001</v>
+        <v>69.8</v>
       </c>
       <c r="BB4" t="n">
-        <v>74.2</v>
+        <v>72.8</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0.3</v>
+        <v>2.4</v>
       </c>
       <c r="BD4" t="n">
-        <v>4.7</v>
+        <v>7.4</v>
       </c>
       <c r="BE4" t="n">
-        <v>73.7</v>
+        <v>73.5</v>
       </c>
       <c r="BF4" t="n">
-        <v>77</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="BG4" t="n">
-        <v>-4.6</v>
+        <v>5.7</v>
       </c>
       <c r="BH4" t="n">
-        <v>3.2</v>
+        <v>7.4</v>
       </c>
       <c r="BI4" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>81.3</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>79.59999999999999</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>80.90000000000001</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -1600,51 +1420,6 @@
         <v>0.4</v>
       </c>
       <c r="BI5" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>80</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>84.5</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>1.099999999999994</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>0.5999999999999943</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>69.90000000000001</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="BX5" t="n">
         <v>79.2</v>
       </c>
     </row>
